--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441960.2767027526</v>
+        <v>436097.9566675737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10940626.12724805</v>
+        <v>10939446.16846721</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>335.2122228055284</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>34.30171200184013</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226928</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.235362728055925</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.6167381191553</v>
+        <v>343.6600387793789</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614928</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722981</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50.28090806977688</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>233.2145324649391</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>115.2423667338651</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1312,7 +1312,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>49.93354191224999</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>214.5418846198507</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>16.35573761503272</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>72.69015651227286</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>132.0363691437749</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>148.7186143615595</v>
+        <v>242.5226489044701</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>7.015563109096842</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>119.4019926754202</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126124</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838884</v>
+        <v>24.17382596575018</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828896</v>
+        <v>52.06849973565031</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086858</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431729</v>
+        <v>70.57601873167863</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459969</v>
+        <v>55.72314698196104</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643942</v>
+        <v>41.29686219380076</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931853</v>
+        <v>41.22330424667987</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390858</v>
+        <v>42.97275566644714</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147793</v>
+        <v>53.79159358883928</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804998</v>
+        <v>41.14384575541132</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922191</v>
+        <v>18.98356133658325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367783</v>
+        <v>9.882059701039168</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920514</v>
+        <v>88.00800320656649</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407386</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678084</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546744</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059221</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.373745460747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.373745460747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="D2" t="n">
-        <v>931.9326166774144</v>
+        <v>1736.564132962858</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774144</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713897</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606225</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U2" t="n">
-        <v>1752.516685113396</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="V2" t="n">
-        <v>1752.516685113396</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.868491172144</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.868491172144</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.868491172144</v>
+        <v>2075.162337816927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981322</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414142</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628945</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737823</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="M3" t="n">
-        <v>846.8008913552947</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>921.5731989359496</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545639</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714991</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.31461761486</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813769</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.26766249241</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863477</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996764</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467761</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222833</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475494</v>
+        <v>360.609055390644</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475494</v>
+        <v>360.609055390644</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>71.88151693023659</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>506.4075462870908</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>220.9687545289917</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475494</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475494</v>
+        <v>817.8014387910175</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475494</v>
+        <v>583.7211165740006</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475494</v>
+        <v>360.609055390644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>732.5921803146066</v>
+        <v>1314.710697718271</v>
       </c>
       <c r="C5" t="n">
-        <v>732.5921803146066</v>
+        <v>921.5351962212017</v>
       </c>
       <c r="D5" t="n">
-        <v>732.5921803146066</v>
+        <v>536.0940674378694</v>
       </c>
       <c r="E5" t="n">
-        <v>330.0086554311511</v>
+        <v>536.0940674378694</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634771</v>
+        <v>188.9627151354665</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="J5" t="n">
-        <v>124.8453840294538</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="K5" t="n">
-        <v>483.8277400569157</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>483.8277400569157</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067008</v>
+        <v>1407.408573112019</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172346</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.030240172346</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.030240172346</v>
+        <v>1704.163302785214</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.577635105402</v>
+        <v>1314.710697718271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1133.086926026004</v>
+        <v>1314.710697718271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902142</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622342</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837145</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946022</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>114.191923077734</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475494</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475494</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475494</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875478</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1561.559659207237</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267596</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431033</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.821594181782</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="C7" t="n">
-        <v>200.821594181782</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="D7" t="n">
-        <v>200.821594181782</v>
+        <v>342.8517260198151</v>
       </c>
       <c r="E7" t="n">
-        <v>200.821594181782</v>
+        <v>342.8517260198151</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>342.8517260198151</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192607</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192607</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633854</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>659.5038901782084</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W7" t="n">
-        <v>423.9336553651386</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="X7" t="n">
-        <v>423.9336553651386</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.821594181782</v>
+        <v>393.6405220498928</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D8" t="n">
         <v>1604.036739400527</v>
@@ -4835,19 +4835,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1720.443170444836</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>335.8859465029718</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>335.8859465029718</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1684.000063606712</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.620837255836</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.620837255836</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1031.833587518574</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>686.7354241947462</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>345.3689438289432</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3089.435438119884</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="V11" t="n">
-        <v>2954.252057911387</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="W11" t="n">
-        <v>2655.049298025869</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X11" t="n">
-        <v>2337.39296810512</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>2012.698534171915</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>593.7970597253332</v>
+        <v>571.3326729474579</v>
       </c>
       <c r="C13" t="n">
-        <v>495.3882169375163</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D13" t="n">
-        <v>411.551378986225</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507882</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143252</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1232.342763301055</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1232.342763301055</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>1232.342763301055</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.808636378426</v>
+        <v>796.0728595020684</v>
       </c>
       <c r="X13" t="n">
-        <v>858.5245893076033</v>
+        <v>796.0728595020684</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2088032704405</v>
+        <v>644.7570734649053</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406337</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2620.074780904745</v>
+        <v>2430.605950948645</v>
       </c>
       <c r="W14" t="n">
-        <v>2620.074780904745</v>
+        <v>2430.605950948645</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904745</v>
+        <v>2112.949621027896</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.38034697154</v>
+        <v>1788.255187094691</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.2285883998837</v>
+        <v>349.601836270052</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998837</v>
+        <v>251.1929934822354</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485924</v>
+        <v>251.1929934822354</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539888</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131557</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1193.000045512507</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>979.3575289006014</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="V16" t="n">
-        <v>785.1744588676195</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6403319449911</v>
+        <v>776.6134129231452</v>
       </c>
       <c r="X16" t="n">
-        <v>573.6403319449911</v>
+        <v>614.3293658523221</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.6403319449911</v>
+        <v>463.0135798151595</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5671,16 +5671,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879427</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133159</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,10 +6145,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
         <v>435.0968109750519</v>
@@ -6206,16 +6206,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388005</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662623</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6257,10 +6257,10 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
@@ -6312,10 +6312,10 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118093</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485128</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6543,19 +6543,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.817576692272</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1297.817576692272</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>1814.337859283253</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
@@ -6610,7 +6610,7 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993091</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108117</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835549</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786168</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.72233542363</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315959</v>
+        <v>2658.656341426385</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3006.843833557906</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3303.341514273837</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939835</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380777</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696901</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>351.4556755948696</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>979.2273252215508</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1635.00529643211</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965124</v>
+        <v>365.6713676929742</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404883</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237456</v>
+        <v>267.6713584245279</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652553</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597531</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407236</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431908</v>
+        <v>86.73045008374243</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798902</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>231.2685546898321</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>395.3961945636319</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194703</v>
+        <v>581.6877729018959</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>764.877406933105</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1033.381832577067</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928628</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873662</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387764</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451838</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501597</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250228</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273718</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400743</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045823</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027506</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6977,10 +6977,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,7 +7403,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>967.282790386234</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>658.4862820354035</v>
       </c>
       <c r="N2" t="n">
-        <v>498.7223263522517</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>258.5795224705133</v>
+        <v>537.1052683063456</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431207</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>199.8512769672945</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519591</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>285.2000190473176</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.5633660719479</v>
+        <v>611.1777065035436</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>176.3150620066339</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431207</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>234.783646787533</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>313.8678003657251</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10191,7 +10191,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10203,10 +10203,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
-        <v>433.5454285415793</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715893</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>313.8678003657251</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>35.22202291459154</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>77.41436949859526</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.58746959738345</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>30.24717977494129</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.8888144472253</v>
+        <v>25.0847799043147</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.90934851556072</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>42.88155624329607</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>959466.7292153114</v>
+        <v>958865.181601551</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>959466.7292153112</v>
+        <v>958865.181601551</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854475.5077911961</v>
+        <v>854475.507791196</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854475.5077911963</v>
+        <v>854475.5077911961</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963535.9120697684</v>
+        <v>963535.9120697685</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>286846.2421639212</v>
       </c>
       <c r="F2" t="n">
-        <v>286846.2421639211</v>
+        <v>286846.2421639212</v>
       </c>
       <c r="G2" t="n">
         <v>324597.9205680429</v>
@@ -26332,13 +26332,13 @@
         <v>324597.9205680428</v>
       </c>
       <c r="I2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="J2" t="n">
-        <v>324597.9205680427</v>
+        <v>324597.9205680426</v>
       </c>
       <c r="K2" t="n">
-        <v>324597.9205680427</v>
+        <v>324597.9205680426</v>
       </c>
       <c r="L2" t="n">
         <v>324597.9205680417</v>
@@ -26353,7 +26353,7 @@
         <v>324597.9205680429</v>
       </c>
       <c r="P2" t="n">
-        <v>324597.9205680429</v>
+        <v>324597.920568043</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340555</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401312</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399297</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.2417753965</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081112</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>27767.6940427712</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166293</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166293</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805104</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
+        <v>147651.9979996332</v>
+      </c>
+      <c r="I4" t="n">
         <v>147651.9979996333</v>
       </c>
-      <c r="I4" t="n">
-        <v>147651.9979996332</v>
-      </c>
       <c r="J4" t="n">
+        <v>148402.4904640164</v>
+      </c>
+      <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
-      <c r="K4" t="n">
-        <v>148402.4904640164</v>
-      </c>
       <c r="L4" t="n">
-        <v>148146.9165635329</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481729</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481729</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113236.8352179942</v>
+        <v>-109486.9370174601</v>
       </c>
       <c r="C6" t="n">
-        <v>68968.11307386156</v>
+        <v>64371.72001659559</v>
       </c>
       <c r="D6" t="n">
-        <v>62952.31141608811</v>
+        <v>55216.02219269707</v>
       </c>
       <c r="E6" t="n">
-        <v>21644.57948198509</v>
+        <v>21434.84793529549</v>
       </c>
       <c r="F6" t="n">
-        <v>133767.1409560295</v>
+        <v>133557.4094093401</v>
       </c>
       <c r="G6" t="n">
         <v>71350.82771620812</v>
       </c>
       <c r="H6" t="n">
-        <v>118776.1532528899</v>
+        <v>118776.15325289</v>
       </c>
       <c r="I6" t="n">
         <v>118776.15325289</v>
       </c>
       <c r="J6" t="n">
-        <v>-94265.7643443956</v>
+        <v>-87749.47918982293</v>
       </c>
       <c r="K6" t="n">
         <v>112536.3848501068</v>
       </c>
       <c r="L6" t="n">
-        <v>57353.79591548473</v>
+        <v>53304.95870501272</v>
       </c>
       <c r="M6" t="n">
-        <v>76575.32379326696</v>
+        <v>75523.62878207891</v>
       </c>
       <c r="N6" t="n">
         <v>118776.15325289</v>
@@ -26561,7 +26561,7 @@
         <v>91008.45921011886</v>
       </c>
       <c r="P6" t="n">
-        <v>118776.15325289</v>
+        <v>118776.1532528902</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.439195029315</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924562</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551343</v>
+        <v>17.58004954287475</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>34.709617553464</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506332</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506332</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>46.37449468997056</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>332.9873326795553</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343024</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>87.6211875444896</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>279.2617353200782</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>138.1087559661667</v>
+        <v>69.06545530594315</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270492</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758508</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>103.7958738967335</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.28256558319509</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>277.2834352547398</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>181.8059770825967</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,23 +28980,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.7104901066881</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>28.01250026485212</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29539,25 +29539,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566387</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>81.10808140893903</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253952</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224791</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>28.01250026485194</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>28.01250026485243</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>508.7612304376762</v>
       </c>
       <c r="N2" t="n">
-        <v>349.6038350144676</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>173.2074096163467</v>
+        <v>451.7331554521789</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>82.17143902494838</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>136.0815277095335</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1762440226361</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>90.94294915246728</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542317</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>221.4806783164132</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L25" t="n">
-        <v>294.0834769302974</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851013</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,7 +36762,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
-        <v>346.4620637222647</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167554</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>525.5925267547253</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.4926067837688</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227377</v>
+        <v>75.16693519537635</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146711</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.70543230055057</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874983</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>271.2165915595579</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106678</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>221.4806783164132</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184303</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019313</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.7547461184307</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.69798984183555</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
